--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB2187-1D07-4C9F-8ECA-1E158C7CF746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61301D7C-EB66-4DC6-BCE1-0A3EE64AC092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
@@ -4709,13 +4709,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5156,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E568-F977-4E52-BBFC-763861BAD612}">
   <dimension ref="A1:L332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5213,10 +5213,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5962,11 +5962,11 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>1316</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6260,11 +6260,11 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>1317</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6400,11 +6400,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>1344</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6433,11 +6433,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>1346</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6472,11 +6472,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>1351</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -6618,11 +6618,11 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>1372</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -6854,11 +6854,11 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>1407</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -7005,11 +7005,11 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -12948,6 +12948,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A264:B264"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A2:B2"/>
@@ -12964,13 +12971,6 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61301D7C-EB66-4DC6-BCE1-0A3EE64AC092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A84644-62F2-478B-ABB6-82C4C80A73D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -51,11 +51,15 @@
 Comment:
     OV: Original Variable
 NV: New Variable 
-M1: MIDUS I etc.
+M1: MIDUS 1/wave 1
+M2: MIDUS 2/wave 2
+M3: MIDUS 3/wave 3
 MR: MIDUS Refresher (no longitudinal data; national sample that mirrors M1)
 OV Coding Conventions: 
-ABC: Wave I, II, III
-# following letter: Project # 
+A = wave 1
+B = wave 2
+C = wave 3
+# following A B or C = Project # 
 1: Survey Project
 2: Daily Diary 
 4: Biomarker
@@ -114,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1487">
   <si>
     <t>M2ID</t>
   </si>
@@ -183,57 +187,6 @@
   </si>
   <si>
     <t>bMaritalStatus</t>
-  </si>
-  <si>
-    <t>B1PF7A</t>
-  </si>
-  <si>
-    <t>Racial origins #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(parents/grandparents race) </t>
-  </si>
-  <si>
-    <t>B1PF7B</t>
-  </si>
-  <si>
-    <t>Racial origins #2</t>
-  </si>
-  <si>
-    <t>B1PF7C</t>
-  </si>
-  <si>
-    <t>Racial origins #3</t>
-  </si>
-  <si>
-    <t>B1PF7D</t>
-  </si>
-  <si>
-    <t>Racial origins #4</t>
-  </si>
-  <si>
-    <t>B1PF8B</t>
-  </si>
-  <si>
-    <t>Racial background #2</t>
-  </si>
-  <si>
-    <t>B1PF2A</t>
-  </si>
-  <si>
-    <t>Ethnic group #1</t>
-  </si>
-  <si>
-    <t>B1PF2B</t>
-  </si>
-  <si>
-    <t>Ethnic group #2</t>
-  </si>
-  <si>
-    <t>B1PF2C</t>
-  </si>
-  <si>
-    <t>Ethnic group #3</t>
   </si>
   <si>
     <t>B1PA1</t>
@@ -4597,6 +4550,36 @@
   </si>
   <si>
     <t>RA1STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race (B1PF7A) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnicity (B1PF1) </t>
+  </si>
+  <si>
+    <t>NH White</t>
+  </si>
+  <si>
+    <t>NH Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>1 thru 6</t>
+  </si>
+  <si>
+    <t>2 thru 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 thru 6 </t>
   </si>
 </sst>
 </file>
@@ -4684,7 +4667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4709,15 +4692,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5120,11 +5104,15 @@
   <threadedComment ref="A1" dT="2020-07-09T18:57:03.59" personId="{DB52D6ED-0D62-4DF5-A9F4-C428216EB02D}" id="{13D79050-8426-40C1-8494-12DF27D8E8FC}">
     <text>OV: Original Variable
 NV: New Variable 
-M1: MIDUS I etc.
+M1: MIDUS 1/wave 1
+M2: MIDUS 2/wave 2
+M3: MIDUS 3/wave 3
 MR: MIDUS Refresher (no longitudinal data; national sample that mirrors M1)
 OV Coding Conventions: 
-ABC: Wave I, II, III
-# following letter: Project # 
+A = wave 1
+B = wave 2
+C = wave 3
+# following A B or C = Project # 
 1: Survey Project
 2: Daily Diary 
 4: Biomarker
@@ -5156,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E568-F977-4E52-BBFC-763861BAD612}">
   <dimension ref="A1:L332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5176,47 +5164,47 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5230,7 +5218,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -5317,16 +5305,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1491</v>
+        <v>1474</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -5341,7 +5329,7 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="3"/>
@@ -5363,19 +5351,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1477</v>
+        <v>1460</v>
       </c>
       <c r="D8" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5388,11 +5376,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5405,11 +5393,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>1483</v>
+        <v>1466</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5422,39 +5410,39 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>1485</v>
+        <v>1468</v>
       </c>
       <c r="D12" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
       <c r="D13" t="s">
-        <v>1486</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
       <c r="D14" t="s">
-        <v>1488</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
       <c r="D15" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
@@ -5476,47 +5464,47 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -5526,47 +5514,47 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>1</v>
@@ -5576,7 +5564,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -5586,7 +5574,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5594,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>1</v>
@@ -5604,29 +5592,29 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>1</v>
@@ -5636,15 +5624,15 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5655,7 +5643,7 @@
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="3"/>
@@ -5677,23 +5665,23 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
@@ -5704,19 +5692,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -5731,19 +5719,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1468</v>
+        <v>1451</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
@@ -5758,31 +5746,31 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>1</v>
@@ -5792,31 +5780,31 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>1</v>
@@ -5826,23 +5814,23 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
@@ -5853,22 +5841,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
@@ -5879,22 +5867,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
@@ -5905,7 +5893,7 @@
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="3"/>
@@ -5927,30 +5915,30 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="C33" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="D33" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="E33" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="F33" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -5962,11 +5950,11 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="16" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="14" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -5979,19 +5967,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>1288</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6002,19 +5990,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1289</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6025,10 +6013,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6042,19 +6030,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -6065,19 +6053,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -6088,19 +6076,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -6111,19 +6099,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -6134,19 +6122,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -6157,19 +6145,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -6180,17 +6168,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -6201,27 +6189,27 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>1</v>
@@ -6231,27 +6219,27 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>1</v>
@@ -6260,11 +6248,11 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="16" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6277,34 +6265,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C49" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="D49" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="E49" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="F49" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -6315,17 +6303,17 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -6336,17 +6324,17 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -6357,27 +6345,27 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>1</v>
@@ -6387,24 +6375,24 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14" t="s">
         <v>1327</v>
       </c>
-      <c r="D54" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="16" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6417,27 +6405,27 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="C56" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
       <c r="E56" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="F56" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="16" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="A57" s="14" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6450,19 +6438,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="C58" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -6472,11 +6460,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="16" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="A59" s="14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -6489,16 +6477,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -6509,16 +6497,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -6529,16 +6517,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -6549,16 +6537,16 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6569,16 +6557,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6589,27 +6577,27 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>1</v>
@@ -6618,11 +6606,11 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="A66" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -6635,36 +6623,36 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="C67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E67" t="s">
         <v>1374</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1391</v>
-      </c>
       <c r="F67" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="C68" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>1392</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -6675,16 +6663,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -6695,16 +6683,16 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -6715,16 +6703,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -6735,16 +6723,16 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6755,16 +6743,16 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -6775,16 +6763,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -6795,27 +6783,27 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>1</v>
@@ -6825,27 +6813,27 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>1</v>
@@ -6854,11 +6842,11 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="16" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="A77" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -6871,17 +6859,17 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -6892,17 +6880,17 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
-        <v>1409</v>
+        <v>1392</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6913,17 +6901,17 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
-        <v>1410</v>
+        <v>1393</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -6934,17 +6922,17 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6955,17 +6943,17 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6976,27 +6964,27 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>1</v>
@@ -7005,11 +6993,11 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="A84" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -7022,17 +7010,17 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>1446</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>1455</v>
+        <v>1438</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -7043,17 +7031,17 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1456</v>
+        <v>1439</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -7064,17 +7052,17 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -7085,17 +7073,17 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -7106,17 +7094,17 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -7127,17 +7115,17 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -7148,17 +7136,17 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -7169,17 +7157,17 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -7190,17 +7178,17 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -7211,27 +7199,27 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>1</v>
@@ -7241,7 +7229,7 @@
     </row>
     <row r="95" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="12" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="3"/>
@@ -7263,31 +7251,31 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>1</v>
@@ -7297,31 +7285,31 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>1</v>
@@ -7331,7 +7319,7 @@
     </row>
     <row r="98" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="3"/>
@@ -7353,29 +7341,29 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>1</v>
@@ -7385,31 +7373,31 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>1</v>
@@ -7419,31 +7407,31 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>1</v>
@@ -7453,31 +7441,31 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>1</v>
@@ -7487,31 +7475,31 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>1</v>
@@ -7521,31 +7509,31 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>1</v>
@@ -7555,31 +7543,31 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>1</v>
@@ -7589,31 +7577,31 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>1</v>
@@ -7623,31 +7611,31 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>1</v>
@@ -7657,29 +7645,29 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>1</v>
@@ -7689,31 +7677,31 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>1</v>
@@ -7723,31 +7711,31 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>1</v>
@@ -7757,31 +7745,31 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>1</v>
@@ -7791,31 +7779,31 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>1</v>
@@ -7825,31 +7813,31 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -7857,31 +7845,31 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -7889,7 +7877,7 @@
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="12" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="3"/>
@@ -7911,31 +7899,31 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>1</v>
@@ -7945,31 +7933,31 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>1</v>
@@ -7979,31 +7967,31 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>1</v>
@@ -8013,31 +8001,31 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>1</v>
@@ -8047,31 +8035,31 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>1</v>
@@ -8081,31 +8069,31 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>1</v>
@@ -8115,31 +8103,31 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>1</v>
@@ -8149,31 +8137,31 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>1</v>
@@ -8183,31 +8171,31 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
+        <v>525</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>1</v>
@@ -8217,31 +8205,31 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>1</v>
@@ -8251,31 +8239,31 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>1</v>
@@ -8285,31 +8273,31 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>1</v>
@@ -8319,31 +8307,31 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>1</v>
@@ -8353,31 +8341,31 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>550</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="G129" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>1</v>
@@ -8387,31 +8375,31 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>1</v>
@@ -8421,31 +8409,31 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>1</v>
@@ -8455,7 +8443,7 @@
     </row>
     <row r="132" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="12" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="3"/>
@@ -8477,18 +8465,18 @@
     </row>
     <row r="133" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="8" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -8502,10 +8490,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -8519,17 +8507,17 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
@@ -8544,17 +8532,17 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
@@ -8569,17 +8557,17 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
@@ -8594,17 +8582,17 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
@@ -8619,17 +8607,17 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
@@ -8644,17 +8632,17 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
@@ -8669,10 +8657,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -8686,10 +8674,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -8703,10 +8691,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -8720,17 +8708,17 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
@@ -8745,17 +8733,17 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
@@ -8770,17 +8758,17 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
@@ -8795,17 +8783,17 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
@@ -8820,17 +8808,17 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
@@ -8845,17 +8833,17 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
@@ -8870,17 +8858,17 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
@@ -8895,17 +8883,17 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
@@ -8920,17 +8908,17 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
@@ -8945,17 +8933,17 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
@@ -8970,17 +8958,17 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
@@ -8995,17 +8983,17 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
@@ -9020,19 +9008,19 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="s">
@@ -9043,15 +9031,15 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -9062,7 +9050,7 @@
     </row>
     <row r="159" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="12" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="3"/>
@@ -9084,19 +9072,19 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1" t="s">
@@ -9107,17 +9095,17 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
@@ -9132,17 +9120,17 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
@@ -9157,17 +9145,17 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
@@ -9182,17 +9170,17 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
@@ -9207,17 +9195,17 @@
     </row>
     <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="6" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -9228,17 +9216,17 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -9249,17 +9237,17 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -9270,17 +9258,17 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
@@ -9295,17 +9283,17 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
@@ -9320,17 +9308,17 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
@@ -9345,17 +9333,17 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
@@ -9370,7 +9358,7 @@
     </row>
     <row r="172" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="12" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="3"/>
@@ -9392,23 +9380,23 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1" t="s">
@@ -9419,23 +9407,23 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1" t="s">
@@ -9446,36 +9434,36 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="C175" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="D175" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="E175" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="F175" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="C176" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -9486,19 +9474,19 @@
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="C177" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -9509,10 +9497,10 @@
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="C178" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -9526,10 +9514,10 @@
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="C179" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -9543,19 +9531,19 @@
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="F180" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -9566,19 +9554,19 @@
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="C181" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -9589,19 +9577,19 @@
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="C182" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -9612,10 +9600,10 @@
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="C183" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -9629,16 +9617,16 @@
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -9649,16 +9637,16 @@
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -9669,16 +9657,16 @@
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -9689,16 +9677,16 @@
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -9709,16 +9697,16 @@
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -9729,65 +9717,65 @@
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B191" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="9" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -9798,15 +9786,15 @@
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B192" s="1" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -9817,15 +9805,15 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -9836,15 +9824,15 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -9855,15 +9843,15 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -9874,15 +9862,15 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -9893,15 +9881,15 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -9912,7 +9900,7 @@
     </row>
     <row r="198" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="3"/>
@@ -9934,26 +9922,26 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B199" s="1" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="D199" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="F199" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B200" s="1" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -9964,15 +9952,15 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B201" s="1" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -9983,15 +9971,15 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B202" s="1" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -10002,15 +9990,15 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B203" s="1" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -10021,15 +10009,15 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B204" s="1" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -10040,15 +10028,15 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B205" s="1" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -10059,15 +10047,15 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B206" s="1" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="6" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -10078,15 +10066,15 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B207" s="1" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -10097,15 +10085,15 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B208" s="1" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -10116,15 +10104,15 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B209" s="1" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -10135,15 +10123,15 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B210" s="1" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -10154,15 +10142,15 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B211" s="1" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -10173,19 +10161,19 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B212" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="I212" s="1"/>
       <c r="J212" s="1" t="s">
@@ -10196,19 +10184,19 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B213" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="I213" s="1"/>
       <c r="J213" s="1" t="s">
@@ -10219,19 +10207,19 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B214" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I214" s="1"/>
       <c r="J214" s="1" t="s">
@@ -10242,19 +10230,19 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B215" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="I215" s="1"/>
       <c r="J215" s="1" t="s">
@@ -10265,15 +10253,15 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B216" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
@@ -10288,15 +10276,15 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B217" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
@@ -10311,15 +10299,15 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B218" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
@@ -10334,15 +10322,15 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B219" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
@@ -10357,19 +10345,19 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B220" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1" t="s">
@@ -10380,7 +10368,7 @@
     </row>
     <row r="221" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A221" s="12" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="3"/>
@@ -10402,19 +10390,19 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B222" s="1" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -10425,17 +10413,17 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B223" s="1" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -10446,17 +10434,17 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B224" s="1" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -10467,17 +10455,17 @@
     </row>
     <row r="225" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B225" s="1" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -10488,19 +10476,19 @@
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B226" s="1" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -10511,17 +10499,17 @@
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B227" s="1" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -10532,17 +10520,17 @@
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B228" s="1" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -10553,17 +10541,17 @@
     </row>
     <row r="229" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B229" s="1" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -10574,23 +10562,23 @@
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B230" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1" t="s">
@@ -10601,21 +10589,21 @@
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B231" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1" t="s">
@@ -10626,17 +10614,17 @@
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B232" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
@@ -10651,19 +10639,19 @@
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B233" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
@@ -10678,19 +10666,19 @@
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B234" s="6" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -10701,23 +10689,23 @@
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B235" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1" t="s">
@@ -10728,23 +10716,23 @@
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B236" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="I236" s="1"/>
       <c r="J236" s="1" t="s">
@@ -10755,23 +10743,23 @@
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B237" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="I237" s="1"/>
       <c r="J237" s="1" t="s">
@@ -10782,19 +10770,19 @@
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B238" s="1" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -10805,19 +10793,19 @@
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B239" s="1" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -10828,23 +10816,23 @@
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B240" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="F240" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="s">
@@ -10855,19 +10843,19 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B241" s="1" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -10878,23 +10866,23 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B242" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="I242" s="1"/>
       <c r="J242" s="1" t="s">
@@ -10905,30 +10893,30 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B243" s="1" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="D243" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="E243" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B244" s="1" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -10941,19 +10929,19 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B245" s="1" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -10964,19 +10952,19 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B246" s="1" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -10987,19 +10975,19 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B247" s="1" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -11010,19 +10998,19 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B248" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -11033,19 +11021,19 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B249" s="1" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -11056,13 +11044,13 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B250" s="1" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -11075,23 +11063,23 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B251" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1" t="s">
@@ -11102,19 +11090,19 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B252" s="1" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -11125,7 +11113,7 @@
     </row>
     <row r="253" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A253" s="12" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="3"/>
@@ -11147,14 +11135,14 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B254" s="1" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -11170,14 +11158,14 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B255" s="1" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -11193,14 +11181,14 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B256" s="1" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -11216,14 +11204,14 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B257" s="1" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -11239,14 +11227,14 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B258" s="1" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -11262,14 +11250,14 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B259" s="1" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -11285,14 +11273,14 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B260" s="1" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -11308,14 +11296,14 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B261" s="1" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -11331,14 +11319,14 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B262" s="1" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -11354,15 +11342,15 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B263" s="1" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="E263" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="264" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="3"/>
@@ -11384,23 +11372,23 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B265" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="1" t="s">
@@ -11411,19 +11399,19 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B266" s="1" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -11434,19 +11422,19 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B267" s="1" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -11457,19 +11445,19 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B268" s="1" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -11480,19 +11468,19 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B269" s="1" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -11503,19 +11491,19 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B270" s="1" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -11526,19 +11514,19 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B271" s="1" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -11549,19 +11537,19 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B272" s="1" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -11572,19 +11560,19 @@
     </row>
     <row r="273" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B273" s="1" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -11595,19 +11583,19 @@
     </row>
     <row r="274" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B274" s="1" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -11618,19 +11606,19 @@
     </row>
     <row r="275" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B275" s="1" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -11641,19 +11629,19 @@
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B276" s="1" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -11664,19 +11652,19 @@
     </row>
     <row r="277" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B277" s="1" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -11687,19 +11675,19 @@
     </row>
     <row r="278" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B278" s="1" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -11710,19 +11698,19 @@
     </row>
     <row r="279" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B279" s="1" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -11733,19 +11721,19 @@
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B280" s="1" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -11756,19 +11744,19 @@
     </row>
     <row r="281" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B281" s="1" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -11779,19 +11767,19 @@
     </row>
     <row r="282" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B282" s="1" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -11802,19 +11790,19 @@
     </row>
     <row r="283" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B283" s="1" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -11825,19 +11813,19 @@
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B284" s="1" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -11848,19 +11836,19 @@
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B285" s="1" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -11871,19 +11859,19 @@
     </row>
     <row r="286" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B286" s="1" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -11894,19 +11882,19 @@
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B287" s="1" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -11917,19 +11905,19 @@
     </row>
     <row r="288" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B288" s="1" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -11940,19 +11928,19 @@
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B289" s="1" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -11963,19 +11951,19 @@
     </row>
     <row r="290" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B290" s="1" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -11986,19 +11974,19 @@
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B291" s="1" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -12009,19 +11997,19 @@
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B292" s="1" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -12032,19 +12020,19 @@
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B293" s="1" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -12055,19 +12043,19 @@
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B294" s="1" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -12078,19 +12066,19 @@
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B295" s="1" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -12101,19 +12089,19 @@
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B296" s="1" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -12124,19 +12112,19 @@
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B297" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E297" s="1"/>
       <c r="F297" s="1" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="I297" s="1"/>
       <c r="J297" s="1" t="s">
@@ -12147,19 +12135,19 @@
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B298" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E298" s="1"/>
       <c r="F298" s="1" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="I298" s="1"/>
       <c r="J298" s="1" t="s">
@@ -12170,19 +12158,19 @@
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B299" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="G299" s="1"/>
       <c r="H299" s="1" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I299" s="1"/>
       <c r="J299" s="1" t="s">
@@ -12193,19 +12181,19 @@
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B300" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E300" s="1"/>
       <c r="F300" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1" t="s">
@@ -12216,19 +12204,19 @@
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B301" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E301" s="1"/>
       <c r="F301" s="1" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="s">
@@ -12239,19 +12227,19 @@
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B302" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1" t="s">
@@ -12262,19 +12250,19 @@
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B303" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E303" s="1"/>
       <c r="F303" s="1" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="s">
@@ -12285,19 +12273,19 @@
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B304" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1" t="s">
@@ -12308,19 +12296,19 @@
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B305" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1" t="s">
@@ -12331,19 +12319,19 @@
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B306" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1" t="s">
@@ -12354,19 +12342,19 @@
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B307" s="1" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="G307" s="1"/>
       <c r="H307" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="s">
@@ -12377,19 +12365,19 @@
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B308" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1" t="s">
@@ -12400,19 +12388,19 @@
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B309" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1" t="s">
@@ -12423,19 +12411,19 @@
     </row>
     <row r="310" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B310" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1" t="s">
@@ -12446,19 +12434,19 @@
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B311" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="s">
@@ -12469,19 +12457,19 @@
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B312" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1" t="s">
@@ -12492,19 +12480,19 @@
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B313" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1" t="s">
@@ -12515,19 +12503,19 @@
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B314" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1" t="s">
@@ -12538,19 +12526,19 @@
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B315" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1" t="s">
@@ -12561,19 +12549,19 @@
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B316" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1" t="s">
@@ -12584,15 +12572,15 @@
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B317" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
@@ -12607,15 +12595,15 @@
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B318" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1" t="s">
@@ -12630,15 +12618,15 @@
     </row>
     <row r="319" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B319" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
@@ -12653,15 +12641,15 @@
     </row>
     <row r="320" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B320" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1" t="s">
@@ -12676,19 +12664,19 @@
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B321" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="I321" s="1"/>
       <c r="J321" s="1" t="s">
@@ -12699,15 +12687,15 @@
     </row>
     <row r="322" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B322" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
@@ -12722,15 +12710,15 @@
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B323" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
@@ -12745,15 +12733,15 @@
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B324" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
@@ -12768,19 +12756,19 @@
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B325" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I325" s="1"/>
       <c r="J325" s="1" t="s">
@@ -12791,15 +12779,15 @@
     </row>
     <row r="326" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B326" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1" t="s">
@@ -12814,15 +12802,15 @@
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B327" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1" t="s">
@@ -12837,19 +12825,19 @@
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B328" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="G328" s="1"/>
       <c r="H328" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1" t="s">
@@ -12860,15 +12848,15 @@
     </row>
     <row r="329" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B329" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1" t="s">
@@ -12883,15 +12871,15 @@
     </row>
     <row r="330" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B330" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1" t="s">
@@ -12948,13 +12936,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A264:B264"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A2:B2"/>
@@ -12971,6 +12952,13 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12983,182 +12971,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488E8E56-806D-4A7E-94A4-CB5986D3C80D}">
-  <dimension ref="B1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FFA6A-D169-4BA1-9110-C5FA179EC0BB}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A84644-62F2-478B-ABB6-82C4C80A73D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B0DA7-6406-4DC5-8DF0-52D49F4DD5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1556">
   <si>
     <t>M2ID</t>
   </si>
@@ -4552,34 +4552,241 @@
     <t>RA1STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">New level </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race (B1PF7A) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnicity (B1PF1) </t>
-  </si>
-  <si>
-    <t>NH White</t>
-  </si>
-  <si>
-    <t>NH Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>1 thru 6</t>
-  </si>
-  <si>
-    <t>2 thru 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 thru 6 </t>
+    <t xml:space="preserve">aGender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aHHIncome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aRace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aCamSum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aCamEverAcupuncture </t>
+  </si>
+  <si>
+    <t>aCamEverBiofeedback</t>
+  </si>
+  <si>
+    <t>aCamEverChiropractor</t>
+  </si>
+  <si>
+    <t>aCamEverEnergy</t>
+  </si>
+  <si>
+    <t>aCamEverMoveTherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aCamEverHerbTherapy </t>
+  </si>
+  <si>
+    <t>aCamEverMegaVitamins</t>
+  </si>
+  <si>
+    <t>aCamEverHomeopathy</t>
+  </si>
+  <si>
+    <t>aCamEverHypnosis</t>
+  </si>
+  <si>
+    <t>aCamEverImageTech</t>
+  </si>
+  <si>
+    <t>aCamEverMassage</t>
+  </si>
+  <si>
+    <t>aCamEverPray</t>
+  </si>
+  <si>
+    <t>aCamEverMeditate</t>
+  </si>
+  <si>
+    <t>aCamEverSpecialDiet</t>
+  </si>
+  <si>
+    <t>aChronicSum</t>
+  </si>
+  <si>
+    <t>aChronicAny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aBmi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aEducation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bEducation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bGender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bHHIncome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bRace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bCamSum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bCamEverAcupuncture </t>
+  </si>
+  <si>
+    <t>bCamEverBiofeedback</t>
+  </si>
+  <si>
+    <t>bCamEverChiropractor</t>
+  </si>
+  <si>
+    <t>bCamEverEnergy</t>
+  </si>
+  <si>
+    <t>bCamEverMoveTherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bCamEverHerbTherapy </t>
+  </si>
+  <si>
+    <t>bCamEverMegaVitamins</t>
+  </si>
+  <si>
+    <t>bCamEverHomeopathy</t>
+  </si>
+  <si>
+    <t>bCamEverHypnosis</t>
+  </si>
+  <si>
+    <t>bCamEverImageTech</t>
+  </si>
+  <si>
+    <t>bCamEverMassage</t>
+  </si>
+  <si>
+    <t>bCamEverPray</t>
+  </si>
+  <si>
+    <t>bCamEverMeditate</t>
+  </si>
+  <si>
+    <t>bCamEverSpecialDiet</t>
+  </si>
+  <si>
+    <t>bChronicSum</t>
+  </si>
+  <si>
+    <t>bChronicAny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bBmi </t>
+  </si>
+  <si>
+    <t>bBioBmi</t>
+  </si>
+  <si>
+    <t>bSleepDifficulty</t>
+  </si>
+  <si>
+    <t>bSleepPittIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cEducation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cGender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cHHIncome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cRace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCamSum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCamEverAcupuncture </t>
+  </si>
+  <si>
+    <t>cCamEverBiofeedback</t>
+  </si>
+  <si>
+    <t>cCamEverChiropractor</t>
+  </si>
+  <si>
+    <t>cCamEverEnergy</t>
+  </si>
+  <si>
+    <t>cCamEverMoveTherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCamEverHerbTherapy </t>
+  </si>
+  <si>
+    <t>cCamEverMegaVitamins</t>
+  </si>
+  <si>
+    <t>cCamEverHomeopathy</t>
+  </si>
+  <si>
+    <t>cCamEverHypnosis</t>
+  </si>
+  <si>
+    <t>cCamEverImageTech</t>
+  </si>
+  <si>
+    <t>cCamEverMassage</t>
+  </si>
+  <si>
+    <t>cCamEverPray</t>
+  </si>
+  <si>
+    <t>cCamEverMeditate</t>
+  </si>
+  <si>
+    <t>cCamEverSpecialDiet</t>
+  </si>
+  <si>
+    <t>cChronicSum</t>
+  </si>
+  <si>
+    <t>cChronicAny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cBmi </t>
+  </si>
+  <si>
+    <t>cBioBmi</t>
+  </si>
+  <si>
+    <t>cSleepDifficulty</t>
+  </si>
+  <si>
+    <t>cSleepDuration</t>
+  </si>
+  <si>
+    <t>cSleepPittIndex</t>
+  </si>
+  <si>
+    <t>aCamEverSpiritHeal</t>
+  </si>
+  <si>
+    <t>aCamEverOtherHeal</t>
+  </si>
+  <si>
+    <t>bCamEverSpiritHeal</t>
+  </si>
+  <si>
+    <t>bCamEverOtherHeal</t>
+  </si>
+  <si>
+    <t>cCamEverSpiritHeal</t>
+  </si>
+  <si>
+    <t>cCamEverOtherHeal</t>
   </si>
 </sst>
 </file>
@@ -4667,7 +4874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4692,16 +4899,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5144,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E568-F977-4E52-BBFC-763861BAD612}">
   <dimension ref="A1:L332"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5201,10 +5407,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5950,11 +6156,11 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>1299</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6248,11 +6454,11 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>1300</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6388,11 +6594,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>1327</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6421,11 +6627,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>1329</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6460,11 +6666,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -6606,11 +6812,11 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -6842,11 +7048,11 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>1390</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -6993,11 +7199,11 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -12936,6 +13142,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A264:B264"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A2:B2"/>
@@ -12952,13 +13165,6 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12972,71 +13178,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FFA6A-D169-4BA1-9110-C5FA179EC0BB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1477</v>
+        <v>1498</v>
       </c>
       <c r="B1" t="s">
-        <v>1478</v>
+        <v>1499</v>
       </c>
       <c r="C1" t="s">
-        <v>1479</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>1478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>1477</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1484</v>
+        <v>1479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1502</v>
       </c>
       <c r="C4" t="s">
-        <v>1485</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>1483</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>1486</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>

--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B0DA7-6406-4DC5-8DF0-52D49F4DD5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E2518-AAEF-43D6-B65A-DA734B0B5718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
+    <workbookView xWindow="38460" yWindow="7335" windowWidth="19920" windowHeight="7425" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$D$1:$J$332</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$D$1:$J$336</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
     "Please indicate how often you used each of the following therapies in the past 12 months, either to treat a physical health problem, to treat an emotional or personal problem, to maintain or enhance your wellness, or to prevent the onset of illness "</t>
       </text>
     </comment>
-    <comment ref="B239" authorId="4" shapeId="0" xr:uid="{497A76D2-07EB-49F7-8D65-9FDFC593CB07}">
+    <comment ref="B243" authorId="4" shapeId="0" xr:uid="{497A76D2-07EB-49F7-8D65-9FDFC593CB07}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1565">
   <si>
     <t>M2ID</t>
   </si>
@@ -4787,6 +4787,33 @@
   </si>
   <si>
     <t>cCamEverOtherHeal</t>
+  </si>
+  <si>
+    <t>B1SA56E</t>
+  </si>
+  <si>
+    <t>Physical/occupational therapy</t>
+  </si>
+  <si>
+    <t>C1SA52E</t>
+  </si>
+  <si>
+    <t>Physician prescribed diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight control diet </t>
+  </si>
+  <si>
+    <t>B1SA56O</t>
+  </si>
+  <si>
+    <t>B1SA56P</t>
+  </si>
+  <si>
+    <t>C1SA52O</t>
+  </si>
+  <si>
+    <t>C1SA52P</t>
   </si>
 </sst>
 </file>
@@ -4899,13 +4926,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4993,8 +5020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{107D15D9-916C-4338-B788-9E8851C2BCDC}" name="MIDUS2" displayName="MIDUS2" ref="D1:L332" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="D1:L332" xr:uid="{9B6FD543-333F-46F2-BF9D-57288ACF61E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{107D15D9-916C-4338-B788-9E8851C2BCDC}" name="MIDUS2" displayName="MIDUS2" ref="D1:L336" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="D1:L336" xr:uid="{9B6FD543-333F-46F2-BF9D-57288ACF61E0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F9073641-1652-4CB4-A59A-115DFD7963E4}" uniqueName="1" name="OV M2" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{65C31455-A211-4C2A-9024-E12A1BC1D227}" uniqueName="5" name="OV M3" queryTableFieldId="5" dataDxfId="7"/>
@@ -5333,7 +5360,7 @@
   <threadedComment ref="A115" dT="2020-07-13T16:48:55.14" personId="{DB52D6ED-0D62-4DF5-A9F4-C428216EB02D}" id="{35414162-3B24-4085-8788-437F03C0390A}">
     <text>"Please indicate how often you used each of the following therapies in the past 12 months, either to treat a physical health problem, to treat an emotional or personal problem, to maintain or enhance your wellness, or to prevent the onset of illness "</text>
   </threadedComment>
-  <threadedComment ref="B239" dT="2020-07-21T16:36:44.21" personId="{DB52D6ED-0D62-4DF5-A9F4-C428216EB02D}" id="{497A76D2-07EB-49F7-8D65-9FDFC593CB07}">
+  <threadedComment ref="B243" dT="2020-07-21T16:36:44.21" personId="{DB52D6ED-0D62-4DF5-A9F4-C428216EB02D}" id="{497A76D2-07EB-49F7-8D65-9FDFC593CB07}">
     <text>36d. “On your job, how often do you have to initiate things -- such as coming up with
 your own ideas, or figuring out on your own what needs to be done?”
 e. “How often do you have a choice in deciding how you do your tasks at work?”
@@ -5348,10 +5375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E568-F977-4E52-BBFC-763861BAD612}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5407,10 +5434,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6156,11 +6183,11 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6454,11 +6481,11 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6594,11 +6621,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>1327</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6627,11 +6654,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6666,11 +6693,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>1334</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -6812,11 +6839,11 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -7048,11 +7075,11 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -7199,11 +7226,11 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -8647,45 +8674,58 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>697</v>
-      </c>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B134" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="A134" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>1564</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -8695,12 +8735,8 @@
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B135" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -8711,119 +8747,83 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B136" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B137" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
+    <row r="136" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>725</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>726</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
@@ -8838,17 +8838,17 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
@@ -8863,68 +8863,92 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="H142" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="J142" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="H143" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="J143" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="J144" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
@@ -8937,94 +8961,70 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>712</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>714</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
@@ -9037,19 +9037,19 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
@@ -9062,19 +9062,19 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
@@ -9087,19 +9087,19 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
@@ -9112,19 +9112,19 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
@@ -9137,19 +9137,19 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
@@ -9162,19 +9162,19 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
@@ -9187,19 +9187,19 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
@@ -9212,21 +9212,23 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
-        <v>838</v>
+        <v>186</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E157" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="F157" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="s">
@@ -9235,62 +9237,73 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
-        <v>839</v>
+        <v>188</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="E158" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="F158" s="1" t="s">
-        <v>841</v>
+        <v>738</v>
       </c>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="J158" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B159" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E160" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="F160" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1" t="s">
@@ -9301,21 +9314,19 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
-        <v>199</v>
+        <v>838</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1" t="s">
@@ -9326,71 +9337,60 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
-        <v>201</v>
+        <v>839</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
-        <v>761</v>
+        <v>841</v>
       </c>
       <c r="G162" s="1"/>
-      <c r="H162" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B163" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
+    <row r="163" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>755</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="s">
@@ -9399,82 +9399,94 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B165" s="6" t="s">
-        <v>744</v>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B165" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>749</v>
+        <v>198</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
+      <c r="H165" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="J165" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
-        <v>745</v>
+        <v>201</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="J166" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
-        <v>747</v>
+        <v>203</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>751</v>
+        <v>202</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="H167" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
@@ -9487,122 +9499,111 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B169" s="1" t="s">
-        <v>209</v>
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B169" s="6" t="s">
+        <v>744</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>208</v>
+        <v>749</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G169" s="1"/>
-      <c r="H169" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
-        <v>211</v>
+        <v>745</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>210</v>
+        <v>750</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G170" s="1"/>
-      <c r="H170" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
-        <v>213</v>
+        <v>747</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>212</v>
+        <v>751</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G171" s="1"/>
-      <c r="H171" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B172" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>775</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1" t="s">
@@ -9613,23 +9614,21 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>776</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1" t="s">
@@ -9640,116 +9639,137 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C175" t="s">
-        <v>778</v>
-      </c>
-      <c r="D175" t="s">
-        <v>783</v>
-      </c>
-      <c r="E175" t="s">
-        <v>788</v>
-      </c>
-      <c r="F175" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B176" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C176" t="s">
-        <v>780</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C177" t="s">
-        <v>782</v>
+        <v>33</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>785</v>
+        <v>32</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="H177" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="J177" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C178" t="s">
-        <v>817</v>
-      </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
-        <v>818</v>
+        <v>777</v>
       </c>
       <c r="C179" t="s">
-        <v>819</v>
-      </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
+        <v>778</v>
+      </c>
+      <c r="D179" t="s">
+        <v>783</v>
+      </c>
+      <c r="E179" t="s">
+        <v>788</v>
+      </c>
+      <c r="F179" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>821</v>
+        <v>779</v>
+      </c>
+      <c r="C180" t="s">
+        <v>780</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F180" t="s">
-        <v>834</v>
+        <v>789</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -9760,19 +9780,19 @@
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
       <c r="C181" t="s">
-        <v>823</v>
+        <v>782</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -9783,20 +9803,14 @@
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="C182" t="s">
-        <v>825</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>836</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9806,10 +9820,10 @@
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C183" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -9823,16 +9837,19 @@
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>801</v>
+        <v>820</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>811</v>
+        <v>831</v>
+      </c>
+      <c r="F184" t="s">
+        <v>834</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -9843,16 +9860,19 @@
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>803</v>
+        <v>822</v>
+      </c>
+      <c r="C185" t="s">
+        <v>823</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -9863,16 +9883,19 @@
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>804</v>
+        <v>824</v>
+      </c>
+      <c r="C186" t="s">
+        <v>825</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -9883,17 +9906,14 @@
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>814</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="C187" t="s">
+        <v>827</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -9903,16 +9923,16 @@
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -9923,65 +9943,56 @@
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E189" s="1"/>
+        <v>797</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="F189" s="1" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="G189" s="1"/>
-      <c r="H189" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E190" s="1"/>
+        <v>798</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F190" s="1" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="G190" s="1"/>
-      <c r="H190" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B191" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="9" t="s">
-        <v>843</v>
+        <v>799</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -9992,15 +10003,16 @@
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B192" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E192" s="1"/>
+        <v>800</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="F192" s="1" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -10011,53 +10023,65 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C193" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="D193" s="1" t="s">
-        <v>848</v>
+        <v>214</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>849</v>
+        <v>771</v>
       </c>
       <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="H193" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="J193" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C194" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="D194" s="1" t="s">
-        <v>851</v>
+        <v>218</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="J194" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
-        <v>853</v>
+        <v>30</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="1" t="s">
-        <v>855</v>
+      <c r="F195" s="9" t="s">
+        <v>843</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -10068,15 +10092,15 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -10087,15 +10111,15 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -10104,50 +10128,55 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B198" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B199" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D199" t="s">
-        <v>863</v>
-      </c>
-      <c r="F199" t="s">
-        <v>888</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B200" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>889</v>
+        <v>860</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -10158,15 +10187,15 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B201" s="1" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -10175,55 +10204,50 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B202" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
+    <row r="202" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" s="13"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B203" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
+        <v>862</v>
+      </c>
+      <c r="D203" t="s">
+        <v>863</v>
+      </c>
+      <c r="F203" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B204" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -10234,15 +10258,15 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B205" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -10253,15 +10277,15 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B206" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="6" t="s">
-        <v>877</v>
+      <c r="D206" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -10272,15 +10296,15 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B207" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -10291,15 +10315,15 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B208" s="1" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -10308,17 +10332,17 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B209" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -10327,17 +10351,17 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B210" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="C210" s="1"/>
-      <c r="D210" s="1" t="s">
-        <v>885</v>
+      <c r="D210" s="6" t="s">
+        <v>877</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -10346,17 +10370,17 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B211" s="1" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -10365,113 +10389,97 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B212" s="1" t="s">
-        <v>222</v>
+        <v>880</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>221</v>
+        <v>881</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="G212" s="1"/>
-      <c r="H212" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B213" s="1" t="s">
-        <v>225</v>
+        <v>882</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>224</v>
+        <v>883</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G213" s="1"/>
-      <c r="H213" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B214" s="1" t="s">
-        <v>228</v>
+        <v>884</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>227</v>
+        <v>885</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G214" s="1"/>
-      <c r="H214" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B215" s="1" t="s">
-        <v>231</v>
+        <v>886</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>230</v>
+        <v>887</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G215" s="1"/>
-      <c r="H215" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B216" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1" t="s">
@@ -10480,21 +10488,21 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B217" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1" t="s">
@@ -10503,21 +10511,21 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B218" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
@@ -10526,21 +10534,21 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B219" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1" t="s">
@@ -10549,21 +10557,21 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B220" s="1" t="s">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1" t="s">
@@ -10572,129 +10580,135 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B221" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B222" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>914</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
+      <c r="H222" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
+      <c r="J222" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B223" s="1" t="s">
-        <v>916</v>
+        <v>240</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>920</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
+      <c r="H223" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
+      <c r="J223" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B224" s="1" t="s">
-        <v>918</v>
+        <v>396</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>921</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
+      <c r="H224" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
+      <c r="J224" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B225" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-    </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B225" s="13"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B226" s="1" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>932</v>
+        <v>912</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>913</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>944</v>
+        <v>915</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -10703,19 +10717,19 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B227" s="1" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -10724,19 +10738,19 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B228" s="1" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -10745,19 +10759,19 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B229" s="1" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>939</v>
+        <v>693</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -10766,152 +10780,136 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B230" s="1" t="s">
-        <v>266</v>
+        <v>931</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>265</v>
+        <v>932</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G230" s="1"/>
-      <c r="H230" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B231" s="1" t="s">
-        <v>244</v>
+        <v>934</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>243</v>
+        <v>935</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="G231" s="1"/>
-      <c r="H231" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B232" s="1" t="s">
-        <v>247</v>
+        <v>936</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>246</v>
+        <v>937</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G232" s="1"/>
-      <c r="H232" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B233" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>961</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>248</v>
+        <v>939</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G233" s="1"/>
-      <c r="H233" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B234" s="6" t="s">
-        <v>926</v>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B234" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>928</v>
+        <v>265</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
+      <c r="H234" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
+      <c r="J234" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B235" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>962</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1" t="s">
@@ -10920,25 +10918,23 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B236" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>965</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="I236" s="1"/>
       <c r="J236" s="1" t="s">
@@ -10947,25 +10943,25 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B237" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="I237" s="1"/>
       <c r="J237" s="1" t="s">
@@ -10974,21 +10970,21 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B238" s="1" t="s">
-        <v>971</v>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B238" s="6" t="s">
+        <v>926</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>972</v>
+        <v>927</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="E238" s="7" t="s">
-        <v>974</v>
+        <v>928</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>975</v>
+        <v>930</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -10997,48 +10993,52 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B239" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>977</v>
+        <v>251</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>978</v>
+        <v>250</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
+      <c r="H239" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="J239" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B240" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="F240" t="s">
-        <v>954</v>
+        <v>966</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="s">
@@ -11047,107 +11047,121 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B241" s="1" t="s">
-        <v>982</v>
+        <v>257</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>989</v>
+        <v>256</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
+      <c r="H241" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
+      <c r="J241" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B242" s="1" t="s">
-        <v>263</v>
+        <v>971</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>960</v>
+        <v>973</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>974</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="G242" s="1"/>
-      <c r="H242" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B243" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D243" t="s">
-        <v>990</v>
-      </c>
-      <c r="E243" t="s">
-        <v>993</v>
+        <v>976</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+        <v>980</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B244" s="1" t="s">
-        <v>987</v>
+        <v>260</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F244" t="s">
+        <v>954</v>
+      </c>
       <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
+      <c r="H244" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
+      <c r="J244" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B245" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>1000</v>
+        <v>982</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>983</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -11156,68 +11170,62 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B246" s="1" t="s">
-        <v>1001</v>
+        <v>263</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1011</v>
+        <v>262</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1016</v>
+        <v>960</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1020</v>
+        <v>955</v>
       </c>
       <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
+      <c r="H246" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
+      <c r="J246" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B247" s="1" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>1017</v>
+        <v>986</v>
+      </c>
+      <c r="D247" t="s">
+        <v>990</v>
+      </c>
+      <c r="E247" t="s">
+        <v>993</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B248" s="1" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1022</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -11225,21 +11233,21 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B249" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>1000</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -11248,18 +11256,22 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B250" s="1" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+        <v>1011</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1020</v>
+      </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -11267,48 +11279,44 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B251" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>1029</v>
+        <v>1003</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1004</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>268</v>
+        <v>1012</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="G251" s="1"/>
-      <c r="H251" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B252" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>1033</v>
+        <v>1005</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1013</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>1034</v>
+        <v>1018</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1022</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -11317,66 +11325,67 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A253" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B253" s="13"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B253" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B254" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C254" s="1"/>
+        <v>1009</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1010</v>
+      </c>
       <c r="D254" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1045</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B255" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C255" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>1029</v>
+      </c>
       <c r="D255" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F255" s="1"/>
+        <v>1026</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="G255" s="1"/>
       <c r="H255" s="1" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1" t="s">
@@ -11385,62 +11394,61 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B256" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1" t="s">
-        <v>273</v>
+        <v>1030</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>1033</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F256" s="1"/>
+        <v>1032</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>1034</v>
+      </c>
       <c r="G256" s="1"/>
-      <c r="H256" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B257" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
+    <row r="257" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B257" s="13"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B258" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -11456,14 +11464,14 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B259" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -11479,14 +11487,14 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B260" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -11502,14 +11510,14 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B261" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -11525,14 +11533,14 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B262" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -11548,53 +11556,65 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B263" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A264" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B264" s="13"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
+        <v>1040</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B264" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B265" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1055</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="C265" s="1"/>
       <c r="D265" s="1" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>1057</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="1" t="s">
@@ -11605,111 +11625,99 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B266" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>1092</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
-        <v>1152</v>
+        <v>279</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>1214</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
+      <c r="H266" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
+      <c r="J266" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B267" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B268" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
+        <v>1044</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B268" s="13"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B269" s="1" t="s">
-        <v>1094</v>
+        <v>24</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1124</v>
+        <v>1055</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1155</v>
+        <v>23</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1186</v>
+        <v>1056</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1217</v>
+        <v>1057</v>
       </c>
       <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
+      <c r="H269" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
+      <c r="J269" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B270" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1125</v>
+        <v>1092</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -11720,19 +11728,19 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B271" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -11743,19 +11751,19 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B272" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -11766,19 +11774,19 @@
     </row>
     <row r="273" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B273" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -11789,19 +11797,19 @@
     </row>
     <row r="274" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B274" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -11812,19 +11820,19 @@
     </row>
     <row r="275" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B275" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -11835,19 +11843,19 @@
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B276" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -11858,19 +11866,19 @@
     </row>
     <row r="277" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B277" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -11881,19 +11889,19 @@
     </row>
     <row r="278" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B278" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -11904,19 +11912,19 @@
     </row>
     <row r="279" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B279" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -11927,19 +11935,19 @@
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B280" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -11950,19 +11958,19 @@
     </row>
     <row r="281" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B281" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -11973,19 +11981,19 @@
     </row>
     <row r="282" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B282" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -11996,19 +12004,19 @@
     </row>
     <row r="283" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B283" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -12019,19 +12027,19 @@
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B284" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -12042,19 +12050,19 @@
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B285" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -12065,19 +12073,19 @@
     </row>
     <row r="286" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B286" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -12088,19 +12096,19 @@
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B287" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -12111,19 +12119,19 @@
     </row>
     <row r="288" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B288" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -12134,19 +12142,19 @@
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B289" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -12157,19 +12165,19 @@
     </row>
     <row r="290" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B290" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -12180,19 +12188,19 @@
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B291" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -12203,19 +12211,19 @@
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B292" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -12226,19 +12234,19 @@
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B293" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -12249,19 +12257,19 @@
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B294" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -12272,19 +12280,19 @@
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B295" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -12295,19 +12303,19 @@
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B296" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -12318,111 +12326,111 @@
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B297" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C297" s="1"/>
+        <v>1118</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1148</v>
+      </c>
       <c r="D297" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E297" s="1"/>
+        <v>1179</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1210</v>
+      </c>
       <c r="F297" s="1" t="s">
-        <v>1058</v>
+        <v>1241</v>
       </c>
       <c r="G297" s="1"/>
-      <c r="H297" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B298" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C298" s="1"/>
+        <v>1119</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1149</v>
+      </c>
       <c r="D298" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E298" s="1"/>
+        <v>1180</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1211</v>
+      </c>
       <c r="F298" s="1" t="s">
-        <v>1059</v>
+        <v>1242</v>
       </c>
       <c r="G298" s="1"/>
-      <c r="H298" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B299" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C299" s="1"/>
+        <v>1120</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1150</v>
+      </c>
       <c r="D299" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E299" s="1"/>
+        <v>1181</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1212</v>
+      </c>
       <c r="F299" s="1" t="s">
-        <v>1060</v>
+        <v>1243</v>
       </c>
       <c r="G299" s="1"/>
-      <c r="H299" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B300" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C300" s="1"/>
+        <v>1121</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1151</v>
+      </c>
       <c r="D300" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E300" s="1"/>
+        <v>1182</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1213</v>
+      </c>
       <c r="F300" s="1" t="s">
-        <v>289</v>
+        <v>1244</v>
       </c>
       <c r="G300" s="1"/>
-      <c r="H300" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B301" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E301" s="1"/>
       <c r="F301" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="s">
@@ -12433,19 +12441,19 @@
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B302" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1" t="s">
@@ -12456,19 +12464,19 @@
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B303" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E303" s="1"/>
       <c r="F303" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="s">
@@ -12479,19 +12487,19 @@
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B304" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>1063</v>
+        <v>289</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1" t="s">
@@ -12502,19 +12510,19 @@
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B305" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1" t="s">
@@ -12525,19 +12533,19 @@
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B306" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1" t="s">
@@ -12548,19 +12556,19 @@
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B307" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G307" s="1"/>
       <c r="H307" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="s">
@@ -12571,19 +12579,19 @@
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B308" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1" t="s">
@@ -12594,19 +12602,19 @@
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B309" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1" t="s">
@@ -12617,19 +12625,19 @@
     </row>
     <row r="310" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B310" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1" t="s">
@@ -12640,19 +12648,19 @@
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B311" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="s">
@@ -12663,19 +12671,19 @@
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B312" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1" t="s">
@@ -12686,19 +12694,19 @@
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B313" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1" t="s">
@@ -12709,19 +12717,19 @@
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B314" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1" t="s">
@@ -12732,19 +12740,19 @@
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B315" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1" t="s">
@@ -12755,19 +12763,19 @@
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B316" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1" t="s">
@@ -12778,19 +12786,19 @@
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B317" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1" t="s">
@@ -12801,19 +12809,19 @@
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B318" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1" t="s">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1" t="s">
@@ -12824,19 +12832,19 @@
     </row>
     <row r="319" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B319" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1" t="s">
@@ -12847,19 +12855,19 @@
     </row>
     <row r="320" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B320" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1" t="s">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1" t="s">
@@ -12870,19 +12878,19 @@
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B321" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="I321" s="1"/>
       <c r="J321" s="1" t="s">
@@ -12893,15 +12901,15 @@
     </row>
     <row r="322" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B322" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
@@ -12916,15 +12924,15 @@
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B323" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
@@ -12939,15 +12947,15 @@
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B324" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
@@ -12962,19 +12970,19 @@
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B325" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I325" s="1"/>
       <c r="J325" s="1" t="s">
@@ -12985,15 +12993,15 @@
     </row>
     <row r="326" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B326" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1" t="s">
@@ -13008,15 +13016,15 @@
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B327" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1" t="s">
@@ -13031,19 +13039,19 @@
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B328" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="G328" s="1"/>
       <c r="H328" s="1" t="s">
-        <v>364</v>
+        <v>1</v>
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1" t="s">
@@ -13054,19 +13062,19 @@
     </row>
     <row r="329" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B329" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1" t="s">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="I329" s="1"/>
       <c r="J329" s="1" t="s">
@@ -13077,15 +13085,15 @@
     </row>
     <row r="330" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B330" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1" t="s">
@@ -13100,14 +13108,16 @@
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B331" s="1" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+      <c r="F331" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1" t="s">
         <v>1</v>
@@ -13121,17 +13131,19 @@
     </row>
     <row r="332" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B332" s="1" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
+      <c r="F332" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1" t="s">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1" t="s">
@@ -13140,17 +13152,98 @@
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
     </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B333" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B334" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+    </row>
+    <row r="335" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+    </row>
+    <row r="336" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A163:B163"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A23:B23"/>
@@ -13158,13 +13251,20 @@
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A136:B136"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13180,7 +13280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FFA6A-D169-4BA1-9110-C5FA179EC0BB}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E2518-AAEF-43D6-B65A-DA734B0B5718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1336C74-24F4-4179-A3B6-C3E407BF7D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38460" yWindow="7335" windowWidth="19920" windowHeight="7425" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
@@ -5378,7 +5378,7 @@
   <dimension ref="A1:L336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/R/Crosswave-Variable-List.xlsx
+++ b/R/Crosswave-Variable-List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1336C74-24F4-4179-A3B6-C3E407BF7D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A497DEEB-0173-4C9A-AE9D-4ADD5AB123FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="7335" windowWidth="19920" windowHeight="7425" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDEBDEAC-AFAE-43FD-9A26-9B7F903D004C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -4926,13 +4926,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5377,8 +5377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E568-F977-4E52-BBFC-763861BAD612}">
   <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5434,10 +5434,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6183,11 +6183,11 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>1299</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6481,11 +6481,11 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>1300</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6621,11 +6621,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>1327</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -6654,11 +6654,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>1329</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6693,11 +6693,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -6839,11 +6839,11 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -7075,11 +7075,11 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>1390</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -7226,11 +7226,11 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -13242,6 +13242,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A268:B268"/>
     <mergeCell ref="A163:B163"/>
     <mergeCell ref="A2:B2"/>
@@ -13258,13 +13265,6 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
